--- a/pred_ohlcv/54_21/2020-01-12 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 TRX ohlcv.xlsx
@@ -860,7 +860,7 @@
         <v>3161310.88584351</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>3125280.43164351</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>3125280.43164351</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>3288083.40694351</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>8356371.53054351</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>7600452.60154351</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>6625838.785887791</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>7538823.36713207</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>6360471.065532071</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>6360471.065532071</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>7107574.170032071</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>6909643.087832071</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>6597527.443632071</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>6445611.950432071</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>7041003.21143207</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>8194473.484332071</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>8194473.484332071</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>8194473.484332071</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>8236273.484332071</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>8236273.484332071</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>7470352.53821718</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>7759013.17876962</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>7467937.52436962</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>9549499.596869618</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>9549499.596869618</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>9549499.596869618</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>10158687.31203517</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>10146220.04823517</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>10146220.04823517</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>10084551.16573517</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>10084551.16573517</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>10084551.16573517</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>10033841.12903517</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>10079125.11943517</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>10182744.28023517</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>10332442.27443517</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-9100809.776532359</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-8987851.830632359</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-8430596.266132357</v>
       </c>
       <c r="H546">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-9146958.412532356</v>
       </c>
       <c r="H548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-9138901.973832356</v>
       </c>
       <c r="H549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-9140316.435432356</v>
       </c>
       <c r="H550">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-9140316.435432356</v>
       </c>
       <c r="H551">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-9172973.204632357</v>
       </c>
       <c r="H552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-9321671.852032356</v>
       </c>
       <c r="H553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-9310167.945632355</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-9310167.945632355</v>
       </c>
       <c r="H555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-9206006.435832355</v>
       </c>
       <c r="H556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-9102598.687532356</v>
       </c>
       <c r="H557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-9109473.721607391</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-9109473.721607391</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-9610720.32540739</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-9610720.32540739</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-9610720.32540739</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-9844555.206407389</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-9844555.206407389</v>
       </c>
       <c r="H589">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-9831545.827107389</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-9831545.827107389</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-9892458.344907388</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-9885995.007807389</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-9885995.007807389</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-9885995.007807389</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-9885995.007807389</v>
       </c>
       <c r="H596">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-9869220.820007389</v>
       </c>
       <c r="H597">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-9857480.53480739</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-9859666.93480739</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-9863675.203007389</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-9808253.310307389</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-9459692.141108979</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-9323882.104108978</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-9596912.022408979</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-9068668.93110898</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-9070946.23100898</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-9190895.85090898</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-6465487.94830898</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 TRX ohlcv.xlsx
@@ -860,7 +860,7 @@
         <v>3161310.88584351</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>3125280.43164351</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>3125280.43164351</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>3288083.40694351</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>8356371.53054351</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>7600452.60154351</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>6625838.785887791</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>7538823.36713207</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>6360471.065532071</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>6360471.065532071</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>7107574.170032071</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>6909643.087832071</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>6597527.443632071</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>6445611.950432071</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>8194473.484332071</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>8236273.484332071</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>8236273.484332071</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>7470352.53821718</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>7759013.17876962</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>7467937.52436962</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>9595191.385669619</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>9549499.596869618</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>9549499.596869618</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>9549499.596869618</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>9549499.596869618</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>9549499.596869618</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>10158687.31203517</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>10146220.04823517</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>10146220.04823517</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>10084551.16573517</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>10084551.16573517</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-8436107.648732359</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-8430596.266132357</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-9146958.412532356</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-9146958.412532356</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-9138901.973832356</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-9140316.435432356</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-9140316.435432356</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-9172973.204632357</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-9321671.852032356</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-9310167.945632355</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-9310167.945632355</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-9206006.435832355</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-9102598.687532356</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-9063036.417532356</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-8932100.962032357</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-8721573.269632358</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-8752847.669632358</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-8752847.669632358</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-8752656.381832359</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-8752656.381832359</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-8752656.381832359</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-8752950.108368909</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-8752950.108368909</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-8752617.097486209</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-8752617.097486209</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-8752617.097486209</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-8758157.26368621</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-8784341.727613769</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-8760675.44451377</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-8760675.44451377</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-8705702.87416058</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-8787592.374107391</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-8787592.374107391</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-8789465.936107391</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-8791296.356107391</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-9109473.721607391</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-9109473.721607391</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-9109473.721607391</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-9109473.721607391</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-9599844.80090739</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-9610720.32540739</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-9610720.32540739</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-9610720.32540739</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-9844555.206407389</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-9844555.206407389</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-9831545.827107389</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-9831545.827107389</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-9892458.344907388</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-9885995.007807389</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-9885995.007807389</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-9885995.007807389</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-9885995.007807389</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-9869220.820007389</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-9857480.53480739</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-9860580.53480739</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-9859666.93480739</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-9904279.10560739</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-9871203.93560739</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-9871203.93560739</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-9871203.93560739</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-9892951.91300739</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-9892951.91300739</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-9863675.203007389</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-9808253.310307389</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-9808253.310307389</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-9808728.462507389</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-9808728.462507389</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-9775658.019607389</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-9754017.920107389</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-9764431.310205748</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-9710054.823805748</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-9008446.280874977</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-9672243.532374976</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-9672343.532374976</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-9586367.439374976</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-9586367.439374976</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-10161266.79607498</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-10161266.79607498</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-9902975.397974975</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-9459692.141108979</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-9323882.104108978</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-9596912.022408979</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-9068668.93110898</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-9070946.23100898</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-9190895.85090898</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-6465487.94830898</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
